--- a/biology/Zoologie/Héron_de_Humblot/Héron_de_Humblot.xlsx
+++ b/biology/Zoologie/Héron_de_Humblot/Héron_de_Humblot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9ron_de_Humblot</t>
+          <t>Héron_de_Humblot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ardea humbloti
 Le Héron de Humblot (Ardea humbloti), dit aussi Héron de Madagascar, est une espèce d'oiseaux, des hérons, de la famille des Ardeidae, présent à Madagascar et menacé. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9ron_de_Humblot</t>
+          <t>Héron_de_Humblot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom rend hommage au botaniste français Léon Humblot (1852-1914).
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9ron_de_Humblot</t>
+          <t>Héron_de_Humblot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un oiseau d'environ 100 cm de longueur, de couleur gris mauve sombre avec une calotte noire. Le bec est jaunâtre à base noire, et les pattes brunes[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un oiseau d'environ 100 cm de longueur, de couleur gris mauve sombre avec une calotte noire. Le bec est jaunâtre à base noire, et les pattes brunes. 
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9ron_de_Humblot</t>
+          <t>Héron_de_Humblot</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se nourrit de poissons qu'il pêche à l'affût[1].  
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nourrit de poissons qu'il pêche à l'affût.  
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%A9ron_de_Humblot</t>
+          <t>Héron_de_Humblot</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">À Madagascar, il est commun sur les côtes nord et ouest de l'île (région de Toliara en particulier) mais également à l'intérieur des terres, notamment près du Lac Alaotra, mais est aussi présent aux Comores et à Mayotte. 
 Il aime les eaux profondes, salées ou douces, avec des grands poissons. Il fréquente les récifs et les zones intertidales.  
